--- a/Data/Filtered_Users_info.xlsx
+++ b/Data/Filtered_Users_info.xlsx
@@ -507,44 +507,44 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>609517172</v>
+        <v>216099947</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>@MissRose_bot</t>
+          <t>@IngaMir</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Rose</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>Инга</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Мироновская</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="b">
         <v>0</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Powerful telegram bot to help you manage your groups. @BanhammerMarie_bot's sister.Updates in @MarieNews.</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>103487269</v>
+        <v>609517172</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>@yetyyul</t>
+          <t>@MissRose_bot</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Юлия</t>
+          <t>Rose</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -552,23 +552,27 @@
       <c r="G4" t="b">
         <v>0</v>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Powerful telegram bot to help you manage your groups. @BanhammerMarie_bot's sister.Updates in @MarieNews.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1593417573</v>
+        <v>103487269</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>@leobaikal72</t>
+          <t>@yetyyul</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Леонид</t>
+          <t>Юлия</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -583,79 +587,75 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>315495681</v>
+        <v>1593417573</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>@Ksenya_Key</t>
+          <t>@leobaikal72</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ksenya</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Key</t>
-        </is>
-      </c>
+          <t>Леонид</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="b">
         <v>0</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Улыбайся =)</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>151141572</v>
+        <v>315495681</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>@zw_irk</t>
+          <t>@Ksenya_Key</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Vadim</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>Ksenya</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Key</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="b">
         <v>0</v>
       </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Улыбайся =)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>126315380</v>
+        <v>151141572</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>@Kamaz38</t>
+          <t>@zw_irk</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Михаил</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Че</t>
-        </is>
-      </c>
+          <t>Vadim</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="b">
         <v>0</v>
@@ -667,28 +667,24 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>477324101</v>
+        <v>126315380</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>@Ingvar38</t>
+          <t>@Kamaz38</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Ingvar</t>
+          <t>Михаил</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Aleksandrson</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>79140040533</t>
-        </is>
-      </c>
+          <t>Че</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="b">
         <v>0</v>
       </c>
@@ -699,58 +695,62 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>57717039</v>
+        <v>477324101</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>@Effecton</t>
+          <t>@Ingvar38</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>JV 🐺</t>
+          <t>Ingvar</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Yurko</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>Aleksandrson</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>79140040533</t>
+        </is>
+      </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Effecton Marketing. effect-on.ru - контекст, таргетинг, сайты</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>696267355</v>
+        <v>57717039</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>@ProtectronBot</t>
+          <t>@Effecton</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Protectron</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>JV 🐺</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Yurko</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>AI-powered security, anti-spam and analytics. Join thousands of groups with millions of members protectronbot.com</t>
+          <t>Effecton Marketing. effect-on.ru - контекст, таргетинг, сайты</t>
         </is>
       </c>
     </row>
@@ -759,34 +759,26 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>233371995</v>
+        <v>696267355</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>@Finnn77</t>
+          <t>@ProtectronBot</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Артем</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Finnn</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>79025775435</t>
-        </is>
-      </c>
+          <t>Protectron</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Написал свое резюме,..теперь плачу. Какой я всё-таки классный))</t>
+          <t>AI-powered security, anti-spam and analytics. Join thousands of groups with millions of members protectronbot.com</t>
         </is>
       </c>
     </row>
@@ -795,53 +787,53 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1042811675</v>
+        <v>233371995</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>@Lao_Gang</t>
+          <t>@Finnn77</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Lao</t>
+          <t>Артем</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Gang</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>Finnn</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>79025775435</t>
+        </is>
+      </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Инст: @Lao_Gang https://teleg.run/laogang Гид-водитель Байкал, Китай</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>174572250</v>
+        <v>1042811675</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>@profdoc</t>
+          <t>@Lao_Gang</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Serge</t>
+          <t>Lao</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sergio</t>
+          <t>Gang</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -855,51 +847,47 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>117194839</v>
+        <v>174572250</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>@victoriaismyname</t>
+          <t>@profdoc</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Victoria</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>Serge</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Sergio</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Мое тотемное животное - козочка🐐</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>61105049</v>
+        <v>117194839</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>@inestacs</t>
+          <t>@victoriaismyname</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Ilia</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Vlasov</t>
-        </is>
-      </c>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="b">
         <v>1</v>
@@ -911,44 +899,44 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>728814623</v>
+        <v>61105049</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>@ulbatros</t>
+          <t>@inestacs</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Михаил</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>Ilia</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Vlasov</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Вкручиваю))</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>298782109</v>
+        <v>728814623</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>@dmdvddd</t>
+          <t>@ulbatros</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Ыыы</t>
+          <t>Михаил</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -956,23 +944,27 @@
       <c r="G18" t="b">
         <v>0</v>
       </c>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Вкручиваю))</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>162726413</v>
+        <v>298782109</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>@GroupHelpBot</t>
+          <t>@dmdvddd</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Group Help</t>
+          <t>Ыыы</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -980,27 +972,23 @@
       <c r="G19" t="b">
         <v>0</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>🤖 This is the most complete Bot to help you manage your groups easily and safely!➡️ Add me in your group as Admin!</t>
-        </is>
-      </c>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>496977627</v>
+        <v>162726413</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>@Juisy_01</t>
+          <t>@GroupHelpBot</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Елена</t>
+          <t>Group Help</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1008,83 +996,79 @@
       <c r="G20" t="b">
         <v>0</v>
       </c>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>🤖 This is the most complete Bot to help you manage your groups easily and safely!➡️ Add me in your group as Admin!</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>713416896</v>
+        <v>496977627</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>@petr_from_irkutsk</t>
+          <t>@Juisy_01</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Пётр</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Кузнецов</t>
-        </is>
-      </c>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="b">
         <v>0</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Ищу рабочих на вахту. Рассматриваем с судимостью. Работа официально</t>
-        </is>
-      </c>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>154948147</v>
+        <v>713416896</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>@Axenia_Bot</t>
+          <t>@petr_from_irkutsk</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Axenia</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>Пётр</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Кузнецов</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="b">
         <v>0</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>🇬🇧Karma counter for groups🇷🇺Счетчик кармы для группGroup: @AxeniaSupport News: @Axenia_Channel</t>
-        </is>
-      </c>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>357836699</v>
+        <v>154948147</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>@fantik_e</t>
+          <t>@Axenia_Bot</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Егор</t>
+          <t>Axenia</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1099,23 +1083,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>409537950</v>
+        <v>357836699</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>@AlexandrPersuk</t>
+          <t>@fantik_e</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Александр</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Сергеевич</t>
-        </is>
-      </c>
+          <t>Егор</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="b">
         <v>0</v>
@@ -1127,21 +1107,21 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>60521675</v>
+        <v>409537950</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>@ssv38</t>
+          <t>@AlexandrPersuk</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sergei</t>
+          <t>Александр</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[EV-driver]</t>
+          <t>Сергеевич</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1155,19 +1135,23 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>81860166</v>
+        <v>60521675</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>@TanyaNerpa</t>
+          <t>@ssv38</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tatiana</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>Sergei</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>[EV-driver]</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="b">
         <v>0</v>
@@ -1179,23 +1163,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1667952579</v>
+        <v>81860166</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>@Almana_couture</t>
+          <t>@TanyaNerpa</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Almana_couture</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Любовь</t>
-        </is>
-      </c>
+          <t>Tatiana</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="b">
         <v>0</v>
@@ -1207,21 +1187,21 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>356347723</v>
+        <v>1667952579</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>@akdzg</t>
+          <t>@Almana_couture</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Алексей</t>
+          <t>Almana_couture</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>AKDZG</t>
+          <t>Любовь</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1235,19 +1215,23 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5214348814</v>
+        <v>356347723</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>@Natasha_04_06</t>
+          <t>@akdzg</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Натка</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
+          <t>Алексей</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>AKDZG</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="b">
         <v>0</v>
@@ -1259,16 +1243,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>343646390</v>
+        <v>5214348814</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>@dennisopanasenko</t>
+          <t>@Natasha_04_06</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>dennis.opanasenko</t>
+          <t>Натка</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1283,23 +1267,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1783619859</v>
+        <v>343646390</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>@Dianka02travel</t>
+          <t>@dennisopanasenko</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Диана</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Путылина</t>
-        </is>
-      </c>
+          <t>dennis.opanasenko</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="b">
         <v>0</v>
@@ -1311,19 +1291,23 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>269901170</v>
+        <v>1783619859</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>@Kisa_kek</t>
+          <t>@Dianka02travel</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Ksenia</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>Диана</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Путылина</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="b">
         <v>0</v>
@@ -1335,23 +1319,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>473000736</v>
+        <v>269901170</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>@sibir799</t>
+          <t>@Kisa_kek</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Дима</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Schkiopu</t>
-        </is>
-      </c>
+          <t>Ksenia</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="b">
         <v>0</v>
@@ -1363,19 +1343,23 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1002773810</v>
+        <v>473000736</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>@pavelvladimirovich82</t>
+          <t>@sibir799</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Павел Владимирович</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+          <t>Дима</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Schkiopu</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="b">
         <v>0</v>
@@ -1387,16 +1371,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>346258664</v>
+        <v>1002773810</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>@zhekaturist</t>
+          <t>@pavelvladimirovich82</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Жека Турист</t>
+          <t>Павел Владимирович</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1411,16 +1395,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>215347126</v>
+        <v>346258664</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>@el_vasileva</t>
+          <t>@zhekaturist</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Лиззи💃🏾</t>
+          <t>Жека Турист</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -1435,28 +1419,20 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>546619678</v>
+        <v>215347126</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>@pro_marketing38</t>
+          <t>@el_vasileva</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Кристина</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Никонова</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>79526101195</t>
-        </is>
-      </c>
+          <t>Лиззи💃🏾</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="b">
         <v>0</v>
       </c>
@@ -1467,20 +1443,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>858573508</v>
+        <v>546619678</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>@nezabudka35</t>
+          <t>@pro_marketing38</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Nezabudka</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+          <t>Кристина</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Никонова</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>79526101195</t>
+        </is>
+      </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
@@ -1491,28 +1475,20 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>78154944</v>
+        <v>858573508</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>@evgparfent</t>
+          <t>@nezabudka35</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Евгений</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Парфентьев</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>79041216137</t>
-        </is>
-      </c>
+          <t>Nezabudka</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="b">
         <v>0</v>
       </c>
@@ -1523,22 +1499,26 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>815182091</v>
+        <v>78154944</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>@LA_dreamline</t>
+          <t>@evgparfent</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Александр Паздников Dream</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+          <t>Евгений</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Парфентьев</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>79087771959</t>
+          <t>79041216137</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -1551,24 +1531,24 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>625598852</v>
+        <v>815182091</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>@Kseniya_Kiriushina</t>
+          <t>@LA_dreamline</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Ксения</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Кирюшина</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
+          <t>Александр Паздников Dream</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>79087771959</t>
+        </is>
+      </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
@@ -1579,19 +1559,23 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1724981555</v>
+        <v>625598852</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>@romansafonov108</t>
+          <t>@Kseniya_Kiriushina</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Роман</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
+          <t>Ксения</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Кирюшина</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="b">
         <v>0</v>
@@ -1603,23 +1587,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>355408899</v>
+        <v>1724981555</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>@raduga_1</t>
+          <t>@romansafonov108</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Ирина</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Демьянова</t>
-        </is>
-      </c>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="b">
         <v>0</v>
@@ -1631,19 +1611,23 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>574037144</v>
+        <v>355408899</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>@Tusya888</t>
+          <t>@raduga_1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Tusya</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
+          <t>Ирина</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Демьянова</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="b">
         <v>0</v>
@@ -1655,16 +1639,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>557180560</v>
+        <v>574037144</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>@Kararrina</t>
+          <t>@Tusya888</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Ирина</t>
+          <t>Tusya</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -1679,23 +1663,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1304310537</v>
+        <v>557180560</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>@Hilux4x4express</t>
+          <t>@Kararrina</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Сергей</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Долгополов</t>
-        </is>
-      </c>
+          <t>Ирина</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="b">
         <v>0</v>
@@ -1707,19 +1687,23 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>322888646</v>
+        <v>1304310537</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>@SStaV</t>
+          <t>@Hilux4x4express</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>StaV</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
+          <t>Сергей</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Долгополов</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="b">
         <v>0</v>
@@ -1731,23 +1715,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>299601216</v>
+        <v>322888646</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>@Zhanna_Rudominskaya</t>
+          <t>@SStaV</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Жанна</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Рудоминская-Слугина</t>
-        </is>
-      </c>
+          <t>StaV</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="b">
         <v>0</v>
@@ -1759,19 +1739,23 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>695047741</v>
+        <v>299601216</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>@Zephyr_blanc</t>
+          <t>@Zhanna_Rudominskaya</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Zephyr</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+          <t>Жанна</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Рудоминская-Слугина</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="b">
         <v>0</v>
@@ -1783,23 +1767,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>324867206</v>
+        <v>695047741</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>@IrinkaIrenka</t>
+          <t>@Zephyr_blanc</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Ирина</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Иринка</t>
-        </is>
-      </c>
+          <t>Zephyr</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="b">
         <v>0</v>
@@ -1811,19 +1791,23 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>280118167</v>
+        <v>324867206</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>@DushkaLi31</t>
+          <t>@IrinkaIrenka</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Лидия</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
+          <t>Ирина</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Иринка</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="b">
         <v>0</v>
@@ -1835,23 +1819,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>422493086</v>
+        <v>280118167</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>@antisocialO_o</t>
+          <t>@DushkaLi31</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Denis</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>Лидия</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="b">
         <v>0</v>
@@ -1863,21 +1843,21 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>78139841</v>
+        <v>422493086</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>@Terorion</t>
+          <t>@antisocialO_o</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Denis</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Bryanskiy</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -1891,26 +1871,26 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>264866800</v>
+        <v>78139841</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>@Berezkova</t>
+          <t>@Terorion</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Ekaterina</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Berezkova</t>
+          <t>Bryanskiy</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr"/>
     </row>
@@ -1919,22 +1899,26 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>758303915</v>
+        <v>264866800</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>@Denis7413</t>
+          <t>@Berezkova</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Денис</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
+          <t>Ekaterina</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Berezkova</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="inlineStr"/>
     </row>
@@ -1943,23 +1927,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>396156396</v>
+        <v>758303915</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>@Kriss_lja</t>
+          <t>@Denis7413</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Кристина</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Ля</t>
-        </is>
-      </c>
+          <t>Денис</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="b">
         <v>0</v>
@@ -1971,21 +1951,21 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>235200924</v>
+        <v>396156396</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>@fantograf</t>
+          <t>@Kriss_lja</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Александр</t>
+          <t>Кристина</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Сидоров</t>
+          <t>Ля</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -1999,19 +1979,23 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1305640175</v>
+        <v>235200924</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>@Allcarrot</t>
+          <t>@fantograf</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Александра</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Сидоров</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="b">
         <v>0</v>
@@ -2023,23 +2007,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>626798090</v>
+        <v>1305640175</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>@igorchernikov</t>
+          <t>@Allcarrot</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>igor</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>chernikov</t>
-        </is>
-      </c>
+          <t>Александра</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="b">
         <v>0</v>
@@ -2051,21 +2031,21 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1448101817</v>
+        <v>626798090</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>@Vakhrusheva_Katya</t>
+          <t>@igorchernikov</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Екатерина</t>
+          <t>igor</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Вахрушева</t>
+          <t>chernikov</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -2079,19 +2059,23 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>969612595</v>
+        <v>1448101817</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>@mj4_44</t>
+          <t>@Vakhrusheva_Katya</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>mj4</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
+          <t>Екатерина</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Вахрушева</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="b">
         <v>0</v>
@@ -2103,16 +2087,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>648906531</v>
+        <v>969612595</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>@nohello_robot</t>
+          <t>@mj4_44</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>No Hello Robot</t>
+          <t>mj4</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -2127,23 +2111,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>275620259</v>
+        <v>648906531</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>@Asia_Chukcha</t>
+          <t>@nohello_robot</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Asia</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Chukcha</t>
-        </is>
-      </c>
+          <t>No Hello Robot</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="b">
         <v>0</v>
@@ -2155,19 +2135,23 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5199441494</v>
+        <v>275620259</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>@Nikoirk</t>
+          <t>@Asia_Chukcha</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Алекс</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Chukcha</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="b">
         <v>0</v>
@@ -2179,22 +2163,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1414586414</v>
+        <v>5199441494</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>@Xumuk38</t>
+          <t>@Nikoirk</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Дмитрий</t>
+          <t>Алекс</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="inlineStr"/>
     </row>
@@ -2203,22 +2187,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>186677336</v>
+        <v>1414586414</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>@Sordina</t>
+          <t>@Xumuk38</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Elena X.</t>
+          <t>Дмитрий</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="inlineStr"/>
     </row>
@@ -2227,23 +2211,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>234573829</v>
+        <v>186677336</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>@Alex88888</t>
+          <t>@Sordina</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Alex</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Alexs</t>
-        </is>
-      </c>
+          <t>Elena X.</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="b">
         <v>0</v>
@@ -2255,21 +2235,21 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>957419656</v>
+        <v>234573829</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>@Nager81</t>
+          <t>@Alex88888</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Nataliya</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Grekova</t>
+          <t>Alexs</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -2283,21 +2263,21 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>424126392</v>
+        <v>957419656</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>@Vershtailer</t>
+          <t>@Nager81</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Денис</t>
+          <t>Nataliya</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Верштайлер</t>
+          <t>Grekova</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -2311,21 +2291,21 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>580335550</v>
+        <v>424126392</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>@neovil</t>
+          <t>@Vershtailer</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Артём</t>
+          <t>Денис</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>neovil</t>
+          <t>Верштайлер</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -2339,19 +2319,23 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>638598125</v>
+        <v>580335550</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>@gpxtrack_bot</t>
+          <t>@neovil</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>GPX Track bot</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr"/>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>neovil</t>
+        </is>
+      </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="b">
         <v>0</v>
@@ -2363,28 +2347,20 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5440394059</v>
+        <v>638598125</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>@Alena_Ageeva2703</t>
+          <t>@gpxtrack_bot</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Алена</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Агеева</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>79148877773</t>
-        </is>
-      </c>
+          <t>GPX Track bot</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="b">
         <v>0</v>
       </c>
@@ -2395,44 +2371,48 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>400753764</v>
+        <v>5440394059</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>@daysandbox_bot</t>
+          <t>@Alena_Ageeva2703</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>DaySandBox</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
+          <t>Алена</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Агеева</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>79148877773</t>
+        </is>
+      </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Bot to remove links &amp; forwarded written by users joined chatroom less than 24 hours. Support: @tgdev_en and @tgdev_ru.</t>
-        </is>
-      </c>
+      <c r="H73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>173306217</v>
+        <v>400753764</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>@dvvkn</t>
+          <t>@daysandbox_bot</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Роман</t>
+          <t>DaySandBox</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -2442,7 +2422,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>🍺</t>
+          <t>Bot to remove links &amp; forwarded written by users joined chatroom less than 24 hours. Support: @tgdev_en and @tgdev_ru.</t>
         </is>
       </c>
     </row>
@@ -2451,16 +2431,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>199284482</v>
+        <v>173306217</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>@maxp_dev</t>
+          <t>@dvvkn</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>maxp.dev</t>
+          <t>Роман</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -2470,7 +2450,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>software developer</t>
+          <t>🍺</t>
         </is>
       </c>
     </row>
@@ -2479,72 +2459,72 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>545790446</v>
+        <v>199284482</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>@Panya1957</t>
+          <t>@maxp_dev</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Павел</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Марчуков</t>
-        </is>
-      </c>
+          <t>maxp.dev</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="b">
         <v>0</v>
       </c>
-      <c r="H76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>software developer</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1131571035</v>
+        <v>545790446</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>@Svet_78_Lana</t>
+          <t>@Panya1957</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Светлана</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr"/>
+          <t>Павел</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Марчуков</t>
+        </is>
+      </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="b">
         <v>0</v>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ГруппаПоходы"СнежныеБарсы" t.me/snejnie_barsi ;insta @svetlana___78___</t>
-        </is>
-      </c>
+      <c r="H77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>515061347</v>
+        <v>1131571035</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>@Ilya38</t>
+          <t>@Svet_78_Lana</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Илья</t>
+          <t>Светлана</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -2552,23 +2532,27 @@
       <c r="G78" t="b">
         <v>0</v>
       </c>
-      <c r="H78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>ГруппаПоходы"СнежныеБарсы" t.me/snejnie_barsi ;insta @svetlana___78___</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>195309802</v>
+        <v>515061347</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>@iuliia_4</t>
+          <t>@Ilya38</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Юлия</t>
+          <t>Илья</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -2583,23 +2567,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>328073253</v>
+        <v>195309802</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>@maryallairk</t>
+          <t>@iuliia_4</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Мария</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Приходько</t>
-        </is>
-      </c>
+          <t>Юлия</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="b">
         <v>0</v>
@@ -2611,19 +2591,23 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>764683605</v>
+        <v>328073253</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>@myvatson</t>
+          <t>@maryallairk</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Vasiliy</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr"/>
+          <t>Мария</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Приходько</t>
+        </is>
+      </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="b">
         <v>0</v>
@@ -2635,16 +2619,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>274183305</v>
+        <v>764683605</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>@Oksa_chernika</t>
+          <t>@myvatson</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Oksa_chernika😈</t>
+          <t>Vasiliy</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -2659,23 +2643,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>62319118</v>
+        <v>274183305</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>@Snejnajull</t>
+          <t>@Oksa_chernika</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>JullijulL</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Arch</t>
-        </is>
-      </c>
+          <t>Oksa_chernika😈</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="b">
         <v>0</v>
@@ -2687,19 +2667,23 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>331811468</v>
+        <v>62319118</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>@AlexIrkut</t>
+          <t>@Snejnajull</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Александр</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr"/>
+          <t>JullijulL</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Arch</t>
+        </is>
+      </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="b">
         <v>0</v>
@@ -2711,16 +2695,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>774725412</v>
+        <v>331811468</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>@SergoSkif</t>
+          <t>@AlexIrkut</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Serj</t>
+          <t>Александр</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -2735,23 +2719,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>928848576</v>
+        <v>774725412</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>@khervova</t>
+          <t>@SergoSkif</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Валя</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Червова</t>
-        </is>
-      </c>
+          <t>Serj</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="b">
         <v>0</v>
@@ -2763,19 +2743,23 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>773610990</v>
+        <v>928848576</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>@Inna_Al_77</t>
+          <t>@khervova</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Inna</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr"/>
+          <t>Валя</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Червова</t>
+        </is>
+      </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="b">
         <v>0</v>
@@ -2787,16 +2771,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1604777463</v>
+        <v>773610990</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>@SutupovPavel</t>
+          <t>@Inna_Al_77</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Саянск</t>
+          <t>Inna</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -2811,16 +2795,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>475130644</v>
+        <v>1604777463</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>@Alex_V_P</t>
+          <t>@SutupovPavel</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Александр</t>
+          <t>Саянск</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -2835,23 +2819,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>310552700</v>
+        <v>475130644</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>@SkylineSessions</t>
+          <t>@Alex_V_P</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Pasha</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Paschovsky</t>
-        </is>
-      </c>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="b">
         <v>0</v>
@@ -2863,21 +2843,21 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>403112560</v>
+        <v>310552700</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>@etavera</t>
+          <t>@SkylineSessions</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Vera</t>
+          <t>Pasha</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Ch</t>
+          <t>Paschovsky</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -2891,21 +2871,21 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1161233827</v>
+        <v>403112560</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>@tango_03</t>
+          <t>@etavera</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Вадим ⛵️🛶🏔⛺️🏜🚲🌅🏂🧗‍♂</t>
+          <t>Vera</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Домашний</t>
+          <t>Ch</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -2919,21 +2899,21 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>921400135</v>
+        <v>1161233827</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>@ksuenigma</t>
+          <t>@tango_03</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Ксения</t>
+          <t>Вадим ⛵️🛶🏔⛺️🏜🚲🌅🏂🧗‍♂</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Л</t>
+          <t>Домашний</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -2947,21 +2927,21 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1693393073</v>
+        <v>921400135</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>@DimaTigun</t>
+          <t>@ksuenigma</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Дмитрий</t>
+          <t>Ксения</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Т</t>
+          <t>Л</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -2975,21 +2955,21 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>765148513</v>
+        <v>1693393073</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>@VictorChelk</t>
+          <t>@DimaTigun</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Виктор</t>
+          <t>Дмитрий</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Виктор</t>
+          <t>Т</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -3003,19 +2983,23 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>871210505</v>
+        <v>765148513</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>@by_Massimo</t>
+          <t>@VictorChelk</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Massimo</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr"/>
+          <t>Виктор</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Виктор</t>
+        </is>
+      </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="b">
         <v>0</v>
@@ -3027,16 +3011,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1274376777</v>
+        <v>871210505</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>@Sinica_38</t>
+          <t>@by_Massimo</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Sinitsa</t>
+          <t>Massimo</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -3051,16 +3035,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>877316737</v>
+        <v>1274376777</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>@OGudkov</t>
+          <t>@Sinica_38</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Oleg</t>
+          <t>Sinitsa</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -3075,23 +3059,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1357438033</v>
+        <v>877316737</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>@balyuta</t>
+          <t>@OGudkov</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Анна</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Б</t>
-        </is>
-      </c>
+          <t>Oleg</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="b">
         <v>0</v>
@@ -3103,19 +3083,23 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>236954089</v>
+        <v>1357438033</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>@Apolinka</t>
+          <t>@balyuta</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Полина</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr"/>
+          <t>Анна</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Б</t>
+        </is>
+      </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="b">
         <v>0</v>
@@ -3127,23 +3111,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>441845850</v>
+        <v>236954089</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>@Matstud</t>
+          <t>@Apolinka</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Иван</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Роговцев</t>
-        </is>
-      </c>
+          <t>Полина</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="b">
         <v>0</v>
@@ -3155,21 +3135,21 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>568127546</v>
+        <v>441845850</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>@Boltik2309</t>
+          <t>@Matstud</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Galina</t>
+          <t>Иван</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Trifonova</t>
+          <t>Роговцев</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
@@ -3183,19 +3163,23 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>453239481</v>
+        <v>568127546</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>@baturlay</t>
+          <t>@Boltik2309</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Виктор И</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr"/>
+          <t>Galina</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Trifonova</t>
+        </is>
+      </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="b">
         <v>0</v>
@@ -3207,16 +3191,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>282015998</v>
+        <v>453239481</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>@i57157</t>
+          <t>@baturlay</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Ilia</t>
+          <t>Виктор И</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -3231,23 +3215,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>326820233</v>
+        <v>282015998</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>@irgups13</t>
+          <t>@i57157</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Андрей</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Тесаков</t>
-        </is>
-      </c>
+          <t>Ilia</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="b">
         <v>0</v>
@@ -3259,19 +3239,23 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>78816625</v>
+        <v>326820233</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>@stanislav_siberia</t>
+          <t>@irgups13</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Stanislav</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr"/>
+          <t>Андрей</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Тесаков</t>
+        </is>
+      </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="b">
         <v>0</v>
@@ -3283,23 +3267,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>983516800</v>
+        <v>78816625</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>@valiente_m</t>
+          <t>@stanislav_siberia</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Valentina</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>Stanislav</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="b">
         <v>0</v>
@@ -3311,19 +3291,23 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1288456525</v>
+        <v>983516800</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>@Nik23kl</t>
+          <t>@valiente_m</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Nikola</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr"/>
+          <t>Valentina</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="b">
         <v>0</v>
@@ -3335,16 +3319,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>454602895</v>
+        <v>1288456525</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>@annna_tereza</t>
+          <t>@Nik23kl</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Анна</t>
+          <t>Nikola</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -3359,16 +3343,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>986106414</v>
+        <v>454602895</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>@ulia_irk</t>
+          <t>@annna_tereza</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Юлия</t>
+          <t>Анна</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -3383,58 +3367,54 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>125476079</v>
+        <v>986106414</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>@Habara_irk</t>
+          <t>@ulia_irk</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Хабара Алексей</t>
+          <t>Юлия</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>79087799995</t>
-        </is>
-      </c>
+      <c r="F111" t="inlineStr"/>
       <c r="G111" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>@habara_group Байкальский странник</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>873796725</v>
+        <v>125476079</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>@Ilya8238</t>
+          <t>@Habara_irk</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Илья</t>
+          <t>Хабара Алексей</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>79087799995</t>
+        </is>
+      </c>
       <c r="G112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Льзя.</t>
+          <t>@habara_group Байкальский странник</t>
         </is>
       </c>
     </row>
@@ -3443,16 +3423,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5244379085</v>
+        <v>873796725</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>@smartspeech_sber_bot</t>
+          <t>@Ilya8238</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>SaluteSpeech Bot (ex SmartSpeech)</t>
+          <t>Илья</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -3462,7 +3442,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Отправьте голосовое сообщение напрямую или добавьте бота в группу — SmartSpeech расшифрует. http://sber.me/?p=4DxzN.</t>
+          <t>Льзя.</t>
         </is>
       </c>
     </row>
@@ -3471,81 +3451,77 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>258783517</v>
+        <v>5244379085</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>@mamayYeti</t>
+          <t>@smartspeech_sber_bot</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Roman</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Perminov</t>
-        </is>
-      </c>
+          <t>SaluteSpeech Bot (ex SmartSpeech)</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="b">
-        <v>1</v>
-      </c>
-      <c r="H114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Отправьте голосовое сообщение напрямую или добавьте бота в группу — SmartSpeech расшифрует. http://sber.me/?p=4DxzN.</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>362400717</v>
+        <v>258783517</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>@darling_nll</t>
+          <t>@mamayYeti</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Alena</t>
+          <t>Roman</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Perminov</t>
         </is>
       </c>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="b">
-        <v>0</v>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Фыр-фыр</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>734585309</v>
+        <v>362400717</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>@Groisin</t>
+          <t>@darling_nll</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Илия</t>
+          <t>Alena</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Чапайкин</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
@@ -3559,21 +3535,21 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>80193001</v>
+        <v>734585309</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>@TenderFire</t>
+          <t>@Groisin</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Pavel</t>
+          <t>Илия</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Slugin</t>
+          <t>Чапайкин</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
@@ -3587,19 +3563,23 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1396631416</v>
+        <v>80193001</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>@Olga_Tymkina</t>
+          <t>@TenderFire</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>@Ольга🌿</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr"/>
+          <t>Pavel</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Slugin</t>
+        </is>
+      </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="b">
         <v>0</v>
@@ -3611,28 +3591,20 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>48025930</v>
+        <v>1396631416</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>@teplovoz</t>
+          <t>@Olga_Tymkina</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Андрей</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Teplovoz Иркутск</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>79041117167</t>
-        </is>
-      </c>
+          <t>@Ольга🌿</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
       <c r="G119" t="b">
         <v>0</v>
       </c>
@@ -3643,20 +3615,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>484031050</v>
+        <v>48025930</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>@alexxsky_38</t>
+          <t>@teplovoz</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Алексей</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
+          <t>Андрей</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Teplovoz Иркутск</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>79041117167</t>
+        </is>
+      </c>
       <c r="G120" t="b">
         <v>0</v>
       </c>
@@ -3667,23 +3647,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>419943122</v>
+        <v>484031050</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>@Naskaya</t>
+          <t>@alexxsky_38</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Anastasiia</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Chernykh</t>
-        </is>
-      </c>
+          <t>Алексей</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="b">
         <v>0</v>
@@ -3695,21 +3671,21 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5495070868</v>
+        <v>419943122</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>@Dinanendenhamzah</t>
+          <t>@Naskaya</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Dina Nenden</t>
+          <t>Anastasiia</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Hamzah</t>
+          <t>Chernykh</t>
         </is>
       </c>
       <c r="F122" t="inlineStr"/>
@@ -3723,19 +3699,23 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>210944655</v>
+        <v>5495070868</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>@combot</t>
+          <t>@Dinanendenhamzah</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Combot</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr"/>
+          <t>Dina Nenden</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Hamzah</t>
+        </is>
+      </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="b">
         <v>0</v>
@@ -3747,16 +3727,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>233470234</v>
+        <v>210944655</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>@DariaDesiatova</t>
+          <t>@combot</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Дарья</t>
+          <t>Combot</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -3771,26 +3751,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>247928708</v>
+        <v>233470234</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>@safin_anton</t>
+          <t>@DariaDesiatova</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Anton</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Safin</t>
-        </is>
-      </c>
+          <t>Дарья</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125" t="inlineStr"/>
     </row>
@@ -3799,30 +3775,26 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>189193198</v>
+        <v>247928708</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>@yuliakhaustova_mm</t>
+          <t>@safin_anton</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Юлия</t>
+          <t>Anton</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Хаустова</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>79041526755</t>
-        </is>
-      </c>
+          <t>Safin</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr"/>
       <c r="G126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" t="inlineStr"/>
     </row>
@@ -3831,24 +3803,28 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>249619849</v>
+        <v>189193198</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>@Fox_video</t>
+          <t>@yuliakhaustova_mm</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Aleksandr</t>
+          <t>Юлия</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Lagan</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr"/>
+          <t>Хаустова</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>79041526755</t>
+        </is>
+      </c>
       <c r="G127" t="b">
         <v>0</v>
       </c>
@@ -3859,19 +3835,23 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1437135501</v>
+        <v>249619849</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>@nataliagrechka</t>
+          <t>@Fox_video</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Наталья</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr"/>
+          <t>Aleksandr</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Lagan</t>
+        </is>
+      </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="b">
         <v>0</v>
@@ -3883,16 +3863,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>143656236</v>
+        <v>1437135501</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>@anurybi</t>
+          <t>@nataliagrechka</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Аня</t>
+          <t>Наталья</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -3907,16 +3887,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>668555046</v>
+        <v>143656236</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>@Kruiz138</t>
+          <t>@anurybi</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Аня</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -3931,16 +3911,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>938430758</v>
+        <v>668555046</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>@Kutsnati</t>
+          <t>@Kruiz138</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Natali</t>
+          <t>K</t>
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
@@ -3955,16 +3935,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>381971516</v>
+        <v>938430758</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>@YDTarasov</t>
+          <t>@Kutsnati</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Ярослав 🏴‍☠️</t>
+          <t>Natali</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
@@ -3979,16 +3959,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1994816172</v>
+        <v>381971516</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>@gorod_krsk</t>
+          <t>@YDTarasov</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Be happy</t>
+          <t>Ярослав 🏴‍☠️</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
@@ -4003,16 +3983,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>79632985</v>
+        <v>1994816172</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>@bananachood</t>
+          <t>@gorod_krsk</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Ксень.</t>
+          <t>Be happy</t>
         </is>
       </c>
       <c r="E134" t="inlineStr"/>
@@ -4027,23 +4007,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1134490055</v>
+        <v>79632985</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>@lizakomarova</t>
+          <t>@bananachood</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Лиза</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Комарова</t>
-        </is>
-      </c>
+          <t>Ксень.</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="b">
         <v>0</v>
@@ -4055,19 +4031,23 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>787058494</v>
+        <v>1134490055</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>@Ksi88888888</t>
+          <t>@lizakomarova</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Булочка🖤</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr"/>
+          <t>Лиза</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Комарова</t>
+        </is>
+      </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="b">
         <v>0</v>
@@ -4079,16 +4059,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>914305441</v>
+        <v>787058494</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>@Olga_Tarasova_XX</t>
+          <t>@Ksi88888888</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Ольга</t>
+          <t>Булочка🖤</t>
         </is>
       </c>
       <c r="E137" t="inlineStr"/>
@@ -4103,16 +4083,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>328112502</v>
+        <v>914305441</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>@Olgamania82</t>
+          <t>@Olga_Tarasova_XX</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Оля</t>
+          <t>Ольга</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -4127,16 +4107,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1306294206</v>
+        <v>328112502</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>@tatasavage</t>
+          <t>@Olgamania82</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Татьяна</t>
+          <t>Оля</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
@@ -4151,16 +4131,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>67689998</v>
+        <v>1306294206</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>@i_indeec</t>
+          <t>@tatasavage</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Indeec</t>
+          <t>Татьяна</t>
         </is>
       </c>
       <c r="E140" t="inlineStr"/>
@@ -4175,23 +4155,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1389084901</v>
+        <v>67689998</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>@phenol_benzol</t>
+          <t>@i_indeec</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Мария</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Рученкова</t>
-        </is>
-      </c>
+          <t>Indeec</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="b">
         <v>0</v>
@@ -4203,19 +4179,23 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>310993270</v>
+        <v>1389084901</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>@MPavelV</t>
+          <t>@phenol_benzol</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>MPavelV</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr"/>
+          <t>Мария</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Рученкова</t>
+        </is>
+      </c>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="b">
         <v>0</v>
@@ -4227,16 +4207,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1378241971</v>
+        <v>310993270</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>@Irina202120212021</t>
+          <t>@MPavelV</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Irina</t>
+          <t>MPavelV</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
@@ -4251,16 +4231,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1029650930</v>
+        <v>1378241971</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>@lesya2702</t>
+          <t>@Irina202120212021</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Леся</t>
+          <t>Irina</t>
         </is>
       </c>
       <c r="E144" t="inlineStr"/>
@@ -4275,16 +4255,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>868261325</v>
+        <v>1029650930</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>@TRISHH21</t>
+          <t>@lesya2702</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Татьяна</t>
+          <t>Леся</t>
         </is>
       </c>
       <c r="E145" t="inlineStr"/>
@@ -4292,27 +4272,23 @@
       <c r="G145" t="b">
         <v>0</v>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>@trishh211</t>
-        </is>
-      </c>
+      <c r="H145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1385555854</v>
+        <v>868261325</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>@Al_Go</t>
+          <t>@TRISHH21</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Александр</t>
+          <t>Татьяна</t>
         </is>
       </c>
       <c r="E146" t="inlineStr"/>
@@ -4320,23 +4296,27 @@
       <c r="G146" t="b">
         <v>0</v>
       </c>
-      <c r="H146" t="inlineStr"/>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>@trishh211</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>202398604</v>
+        <v>1385555854</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>@rshest</t>
+          <t>@Al_Go</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Roman</t>
+          <t>Александр</t>
         </is>
       </c>
       <c r="E147" t="inlineStr"/>
@@ -4344,27 +4324,23 @@
       <c r="G147" t="b">
         <v>0</v>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>Скитурщик, лыжник, инструктор, марафонец, столбист</t>
-        </is>
-      </c>
+      <c r="H147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>899339799</v>
+        <v>202398604</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>@Biktoria20</t>
+          <t>@rshest</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Дунаева Виктория</t>
+          <t>Roman</t>
         </is>
       </c>
       <c r="E148" t="inlineStr"/>
@@ -4374,7 +4350,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Мир полон тайн, которые непременно нужно открыть в этой жизни..</t>
+          <t>Скитурщик, лыжник, инструктор, марафонец, столбист</t>
         </is>
       </c>
     </row>
@@ -4383,16 +4359,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>967614991</v>
+        <v>899339799</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>@Dariga88</t>
+          <t>@Biktoria20</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Dariga</t>
+          <t>Дунаева Виктория</t>
         </is>
       </c>
       <c r="E149" t="inlineStr"/>
@@ -4400,88 +4376,88 @@
       <c r="G149" t="b">
         <v>0</v>
       </c>
-      <c r="H149" t="inlineStr"/>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Мир полон тайн, которые непременно нужно открыть в этой жизни..</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>899217992</v>
+        <v>967614991</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>@SvetlanAngas</t>
+          <t>@Dariga88</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Светлана</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>Ангас</t>
-        </is>
-      </c>
+          <t>Dariga</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="b">
         <v>0</v>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>Экскурсии и туры: Тунка, Шумак, Хубсугул</t>
-        </is>
-      </c>
+      <c r="H150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1923372636</v>
+        <v>899217992</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>@SaganDailya</t>
+          <t>@SvetlanAngas</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Sagan</t>
+          <t>Светлана</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Dailya</t>
+          <t>Ангас</t>
         </is>
       </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="b">
         <v>0</v>
       </c>
-      <c r="H151" t="inlineStr"/>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Экскурсии и туры: Тунка, Шумак, Хубсугул</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>279125937</v>
+        <v>1923372636</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>@I_ttati</t>
+          <t>@SaganDailya</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Tatiana</t>
+          <t>Sagan</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Ivaniushina</t>
+          <t>Dailya</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
@@ -4495,21 +4471,21 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>341518275</v>
+        <v>279125937</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>@Alisaboullee</t>
+          <t>@I_ttati</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Оля</t>
+          <t>Tatiana</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Сударчикова</t>
+          <t>Ivaniushina</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
@@ -4523,19 +4499,23 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1445723312</v>
+        <v>341518275</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>@nastionab</t>
+          <t>@Alisaboullee</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Анастасия</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr"/>
+          <t>Оля</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Сударчикова</t>
+        </is>
+      </c>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="b">
         <v>0</v>
@@ -4547,23 +4527,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>333550782</v>
+        <v>1445723312</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>@Che_Cotiara</t>
+          <t>@nastionab</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Борис</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>Р</t>
-        </is>
-      </c>
+          <t>Анастасия</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="b">
         <v>0</v>
@@ -4575,19 +4551,23 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>347287794</v>
+        <v>333550782</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>@Alinka100</t>
+          <t>@Che_Cotiara</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Aлена</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr"/>
+          <t>Борис</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Р</t>
+        </is>
+      </c>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="b">
         <v>0</v>
@@ -4599,23 +4579,19 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>757835068</v>
+        <v>347287794</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>@zrivkoren1</t>
+          <t>@Alinka100</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Denis</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>Baskak</t>
-        </is>
-      </c>
+          <t>Aлена</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="b">
         <v>0</v>
@@ -4627,19 +4603,23 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>730156347</v>
+        <v>757835068</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>@Tiger_irk</t>
+          <t>@zrivkoren1</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Мила</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr"/>
+          <t>Denis</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Baskak</t>
+        </is>
+      </c>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="b">
         <v>0</v>
@@ -4651,16 +4631,16 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>634107268</v>
+        <v>730156347</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>@igor_forest_men</t>
+          <t>@Tiger_irk</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Igor</t>
+          <t>Мила</t>
         </is>
       </c>
       <c r="E159" t="inlineStr"/>
@@ -4675,22 +4655,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>302500521</v>
+        <v>634107268</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>@tekalovtv</t>
+          <t>@igor_forest_men</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Николай</t>
+          <t>Igor</t>
         </is>
       </c>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160" t="inlineStr"/>
     </row>
@@ -4699,22 +4679,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1121936489</v>
+        <v>302500521</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>@syberia_top_sms</t>
+          <t>@tekalovtv</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Syberia Top | Походы 🎒🏔</t>
+          <t>Николай</t>
         </is>
       </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161" t="inlineStr"/>
     </row>
@@ -4723,16 +4703,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>547422568</v>
+        <v>1121936489</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>@Nataliacheveleva</t>
+          <t>@syberia_top_sms</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Наталья</t>
+          <t>Syberia Top | Походы 🎒🏔</t>
         </is>
       </c>
       <c r="E162" t="inlineStr"/>
@@ -4747,23 +4727,19 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1734016146</v>
+        <v>547422568</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>@Arkancocok</t>
+          <t>@Nataliacheveleva</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Arkady_cocok</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>ARKADY</t>
-        </is>
-      </c>
+          <t>Наталья</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="b">
         <v>0</v>
@@ -4775,19 +4751,23 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>655223725</v>
+        <v>1734016146</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>@Skotenok77777</t>
+          <t>@Arkancocok</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Nataly</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr"/>
+          <t>Arkady_cocok</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>ARKADY</t>
+        </is>
+      </c>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="b">
         <v>0</v>
@@ -4799,16 +4779,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>770134554</v>
+        <v>655223725</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>@Sumss11</t>
+          <t>@Skotenok77777</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Sum</t>
+          <t>Nataly</t>
         </is>
       </c>
       <c r="E165" t="inlineStr"/>
@@ -4823,23 +4803,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>364642457</v>
+        <v>770134554</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>@fitisovaira</t>
+          <t>@Sumss11</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Ирина</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>Фитисова</t>
-        </is>
-      </c>
+          <t>Sum</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="b">
         <v>0</v>
@@ -4851,19 +4827,23 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>926762647</v>
+        <v>364642457</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>@ROMANS_BAIKAL</t>
+          <t>@fitisovaira</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>RomanS</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr"/>
+          <t>Ирина</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Фитисова</t>
+        </is>
+      </c>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="b">
         <v>0</v>
@@ -4875,16 +4855,16 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>139356441</v>
+        <v>926762647</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>@neclud</t>
+          <t>@ROMANS_BAIKAL</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Andrey</t>
+          <t>RomanS</t>
         </is>
       </c>
       <c r="E168" t="inlineStr"/>
@@ -4899,23 +4879,19 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>526022313</v>
+        <v>139356441</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>@Matveenko_Viktorya</t>
+          <t>@neclud</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Viktoriya</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>Matveenko</t>
-        </is>
-      </c>
+          <t>Andrey</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="b">
         <v>0</v>
@@ -4927,21 +4903,21 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>658740194</v>
+        <v>526022313</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>@KrylovDK</t>
+          <t>@Matveenko_Viktorya</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Дмитрий</t>
+          <t>Viktoriya</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Крылов</t>
+          <t>Matveenko</t>
         </is>
       </c>
       <c r="F170" t="inlineStr"/>
@@ -4955,21 +4931,21 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>543210651</v>
+        <v>658740194</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>@Baik_al</t>
+          <t>@KrylovDK</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Alexander</t>
+          <t>Дмитрий</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Vilor</t>
+          <t>Крылов</t>
         </is>
       </c>
       <c r="F171" t="inlineStr"/>
@@ -4983,26 +4959,26 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>669757120</v>
+        <v>543210651</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>@Ekaterinakyrs</t>
+          <t>@Baik_al</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Екатерина</t>
+          <t>Alexander</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Курсакова</t>
+          <t>Vilor</t>
         </is>
       </c>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172" t="inlineStr"/>
     </row>
@@ -5011,26 +4987,26 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>133122286</v>
+        <v>669757120</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>@novo91igor</t>
+          <t>@Ekaterinakyrs</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Игорь</t>
+          <t>Екатерина</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Новокрещенных</t>
+          <t>Курсакова</t>
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173" t="inlineStr"/>
     </row>
@@ -5039,21 +5015,21 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>73364203</v>
+        <v>133122286</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>@NetVetal</t>
+          <t>@novo91igor</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Виталий</t>
+          <t>Игорь</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Ильиных</t>
+          <t>Новокрещенных</t>
         </is>
       </c>
       <c r="F174" t="inlineStr"/>
@@ -5067,21 +5043,21 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>216099947</v>
+        <v>73364203</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>@IngaMir</t>
+          <t>@NetVetal</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Инга</t>
+          <t>Виталий</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Мироновская</t>
+          <t>Ильиных</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
@@ -12064,7 +12040,11 @@
       <c r="G442" t="b">
         <v>0</v>
       </c>
-      <c r="H442" t="inlineStr"/>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>Риэлтор 👌🏽</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
@@ -15892,7 +15872,11 @@
       <c r="G588" t="b">
         <v>0</v>
       </c>
-      <c r="H588" t="inlineStr"/>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>Do what you like 🍃</t>
+        </is>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
@@ -15944,7 +15928,11 @@
       <c r="G590" t="b">
         <v>0</v>
       </c>
-      <c r="H590" t="inlineStr"/>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>Одеваю людей</t>
+        </is>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
@@ -16028,7 +16016,11 @@
       <c r="G593" t="b">
         <v>0</v>
       </c>
-      <c r="H593" t="inlineStr"/>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>SpeedForce</t>
+        </is>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
@@ -16368,7 +16360,11 @@
       <c r="G606" t="b">
         <v>0</v>
       </c>
-      <c r="H606" t="inlineStr"/>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>Студенческий спорта, сплавы по рекам Бурятии, молодежный туризм</t>
+        </is>
+      </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
@@ -20520,11 +20516,7 @@
       <c r="G761" t="b">
         <v>0</v>
       </c>
-      <c r="H761" t="inlineStr">
-        <is>
-          <t>Две руки, две ноги, голова, туловко</t>
-        </is>
-      </c>
+      <c r="H761" t="inlineStr"/>
     </row>
     <row r="762">
       <c r="A762" s="1" t="n">
@@ -20572,11 +20564,7 @@
       <c r="G763" t="b">
         <v>0</v>
       </c>
-      <c r="H763" t="inlineStr">
-        <is>
-          <t>Фотограф Иркутск</t>
-        </is>
-      </c>
+      <c r="H763" t="inlineStr"/>
     </row>
     <row r="764">
       <c r="A764" s="1" t="n">
@@ -20600,11 +20588,7 @@
       <c r="G764" t="b">
         <v>0</v>
       </c>
-      <c r="H764" t="inlineStr">
-        <is>
-          <t>Испанский гид. Теперь и русский. Иркутск, Ангарск, Байкал. @lilichugra</t>
-        </is>
-      </c>
+      <c r="H764" t="inlineStr"/>
     </row>
     <row r="765">
       <c r="A765" s="1" t="n">
@@ -21348,11 +21332,7 @@
       <c r="G792" t="b">
         <v>0</v>
       </c>
-      <c r="H792" t="inlineStr">
-        <is>
-          <t>Inst: @anuta_irk_38</t>
-        </is>
-      </c>
+      <c r="H792" t="inlineStr"/>
     </row>
     <row r="793">
       <c r="A793" s="1" t="n">
@@ -21512,7 +21492,11 @@
       <c r="G798" t="b">
         <v>0</v>
       </c>
-      <c r="H798" t="inlineStr"/>
+      <c r="H798" t="inlineStr">
+        <is>
+          <t>Необычные массажи, сеансы энерготерапии, регрессии</t>
+        </is>
+      </c>
     </row>
     <row r="799">
       <c r="A799" s="1" t="n">
@@ -21644,7 +21628,11 @@
       <c r="G803" t="b">
         <v>0</v>
       </c>
-      <c r="H803" t="inlineStr"/>
+      <c r="H803" t="inlineStr">
+        <is>
+          <t>Фотограф</t>
+        </is>
+      </c>
     </row>
     <row r="804">
       <c r="A804" s="1" t="n">
@@ -22028,7 +22016,11 @@
       <c r="G817" t="b">
         <v>0</v>
       </c>
-      <c r="H817" t="inlineStr"/>
+      <c r="H817" t="inlineStr">
+        <is>
+          <t>Организую активные путешествия по Байкалу</t>
+        </is>
+      </c>
     </row>
     <row r="818">
       <c r="A818" s="1" t="n">
@@ -22348,7 +22340,11 @@
       <c r="G829" t="b">
         <v>0</v>
       </c>
-      <c r="H829" t="inlineStr"/>
+      <c r="H829" t="inlineStr">
+        <is>
+          <t>Личный и финансовый консультант.</t>
+        </is>
+      </c>
     </row>
     <row r="830">
       <c r="A830" s="1" t="n">
@@ -22404,7 +22400,11 @@
       <c r="G831" t="b">
         <v>0</v>
       </c>
-      <c r="H831" t="inlineStr"/>
+      <c r="H831" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
     </row>
     <row r="832">
       <c r="A832" s="1" t="n">
@@ -22616,11 +22616,7 @@
       <c r="G839" t="b">
         <v>0</v>
       </c>
-      <c r="H839" t="inlineStr">
-        <is>
-          <t>PhD, Data Scientists</t>
-        </is>
-      </c>
+      <c r="H839" t="inlineStr"/>
     </row>
     <row r="840">
       <c r="A840" s="1" t="n">
@@ -22724,11 +22720,7 @@
       <c r="G843" t="b">
         <v>0</v>
       </c>
-      <c r="H843" t="inlineStr">
-        <is>
-          <t>📷</t>
-        </is>
-      </c>
+      <c r="H843" t="inlineStr"/>
     </row>
     <row r="844">
       <c r="A844" s="1" t="n">
